--- a/pacoes.xlsx
+++ b/pacoes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Iago\Documents\Unesp\Sociais\2023\1° Semestre\Estatística - Bernardo\Trabalho\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0AD6B5B-E209-42B3-AD9A-EFD81F091483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA05FE9-5BA2-4A5B-AC45-EF45B0E146BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E7FD0EAA-54E3-46D9-BE46-098C5992F40B}"/>
   </bookViews>
@@ -89,7 +89,7 @@
     </r>
   </si>
   <si>
-    <t>A adm pública tem agido nas causas LGBTQIA+?</t>
+    <t>prefeitura</t>
   </si>
 </sst>
 </file>
@@ -314,6 +314,69 @@
   </cellStyleXfs>
   <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -335,9 +398,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -358,66 +418,6 @@
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -736,7 +736,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="D3" sqref="D3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -746,137 +746,153 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="6" t="s">
+      <c r="E1" s="26"/>
+      <c r="F1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="4" t="s">
+      <c r="G1" s="28"/>
+      <c r="H1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="8" t="s">
+      <c r="I1" s="26"/>
+      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="12">
+      <c r="B2" s="30"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="32">
         <v>83</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="14">
+      <c r="E2" s="33"/>
+      <c r="F2" s="34">
         <v>10.4</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="14">
+      <c r="G2" s="35"/>
+      <c r="H2" s="34">
         <v>10.4</v>
       </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="16">
+      <c r="I2" s="35"/>
+      <c r="J2" s="2">
         <v>10.4</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="20">
+      <c r="B3" s="20"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="8">
         <v>415</v>
       </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="22">
+      <c r="E3" s="9"/>
+      <c r="F3" s="10">
         <v>51.9</v>
       </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="22">
+      <c r="G3" s="11"/>
+      <c r="H3" s="10">
         <v>51.9</v>
       </c>
-      <c r="I3" s="23"/>
-      <c r="J3" s="24">
+      <c r="I3" s="11"/>
+      <c r="J3" s="3">
         <v>62.3</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="20">
+      <c r="B4" s="20"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="8">
         <v>153</v>
       </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="22">
+      <c r="E4" s="9"/>
+      <c r="F4" s="10">
         <v>19.100000000000001</v>
       </c>
-      <c r="G4" s="23"/>
-      <c r="H4" s="22">
+      <c r="G4" s="11"/>
+      <c r="H4" s="10">
         <v>19.100000000000001</v>
       </c>
-      <c r="I4" s="23"/>
-      <c r="J4" s="24">
+      <c r="I4" s="11"/>
+      <c r="J4" s="3">
         <v>81.400000000000006</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="20">
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="8">
         <v>149</v>
       </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="22">
+      <c r="E5" s="9"/>
+      <c r="F5" s="10">
         <v>18.600000000000001</v>
       </c>
-      <c r="G5" s="23"/>
-      <c r="H5" s="22">
+      <c r="G5" s="11"/>
+      <c r="H5" s="10">
         <v>18.600000000000001</v>
       </c>
-      <c r="I5" s="23"/>
-      <c r="J5" s="24">
+      <c r="I5" s="11"/>
+      <c r="J5" s="3">
         <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="31">
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15">
         <v>800</v>
       </c>
-      <c r="E6" s="32"/>
-      <c r="F6" s="33">
+      <c r="E6" s="16"/>
+      <c r="F6" s="17">
         <v>100</v>
       </c>
-      <c r="G6" s="34"/>
-      <c r="H6" s="33">
+      <c r="G6" s="18"/>
+      <c r="H6" s="17">
         <v>100</v>
       </c>
-      <c r="I6" s="34"/>
-      <c r="J6" s="35"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:G5"/>
@@ -885,22 +901,6 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
